--- a/docs/testData/TestDataSet1.xlsx
+++ b/docs/testData/TestDataSet1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t xml:space="preserve">TestDataSet 1 </t>
   </si>
@@ -42,15 +42,9 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>Banana</t>
-  </si>
-  <si>
     <t>Onions</t>
   </si>
   <si>
-    <t>Garlic</t>
-  </si>
-  <si>
     <t>Chilli</t>
   </si>
   <si>
@@ -183,12 +177,6 @@
     <t>User input</t>
   </si>
   <si>
-    <t>App output</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Apples</t>
   </si>
   <si>
@@ -223,6 +211,21 @@
   </si>
   <si>
     <t>Evaluated by user data</t>
+  </si>
+  <si>
+    <t>Expected App output</t>
+  </si>
+  <si>
+    <t>Toast</t>
+  </si>
+  <si>
+    <t>Baking powder</t>
+  </si>
+  <si>
+    <t>Chewing gum</t>
+  </si>
+  <si>
+    <t>Gummi bears</t>
   </si>
 </sst>
 </file>
@@ -596,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,16 +630,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,322 +665,406 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
